--- a/総合テスト/会員登録機能/ST-CU-010_結果.xlsx
+++ b/総合テスト/会員登録機能/ST-CU-010_結果.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ai.nagaba\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ai.nagaba\Documents\workspace\ACE\総合テスト\会員登録機能\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{470F31BA-6CA9-4C8A-8B23-AC4ED33FD59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC9A20A-16B4-40FD-8476-7F1D775C3155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4638B4D8-3C2E-4484-BBA9-059C8F61C374}"/>
   </bookViews>
@@ -36,21 +36,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ST-CU-010</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OKボタンを押し、会員登録画面に戻る。</t>
-    <rPh sb="6" eb="7">
-      <t>オ</t>
+    <t>同じメールアドレスで会員登録</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
     </rPh>
-    <rPh sb="9" eb="15">
-      <t>カイイントウロクガメン</t>
+    <rPh sb="10" eb="14">
+      <t>カイイントウロク</t>
     </rPh>
-    <rPh sb="16" eb="17">
-      <t>モド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE_ATが更新されている。</t>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -126,20 +130,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>216126</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3242</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE48E3F-25D3-488E-264C-77CECE26B2E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6ED5E2D-54C6-CFA5-61C9-CAA79DDA945B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -161,8 +165,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="228600"/>
-          <a:ext cx="7772400" cy="4102326"/>
+          <a:off x="0" y="234950"/>
+          <a:ext cx="7772400" cy="4111692"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -175,21 +179,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>198505</xdr:rowOff>
+      <xdr:rowOff>175086</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
+        <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649D2EB3-95F9-D334-671A-7762B78A3A40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D5EE0AB-D792-DDBD-5AC4-F86AE09828CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -211,8 +215,108 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4572000"/>
-          <a:ext cx="7772400" cy="4084705"/>
+          <a:off x="0" y="4546600"/>
+          <a:ext cx="7772400" cy="4086686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>81064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>25814</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91E640A-9A64-8F8A-3C77-0AAFA8F286B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9038617"/>
+          <a:ext cx="7790234" cy="4079006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>94574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>490166</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>55105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031DA35D-E469-82E8-41C6-FBD02464D01E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13645744"/>
+          <a:ext cx="7772400" cy="4094787"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -541,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C9F40F-3F51-4141-86F4-304E7FD62F8F}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -554,9 +658,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
